--- a/data/trans_camb/P24_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_4_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,81</t>
+          <t>-4,93; 11,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 10,29</t>
+          <t>-2,1; 20,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 7,67</t>
+          <t>-1,61; 21,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 7,12</t>
+          <t>-2,42; 20,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 8,05</t>
+          <t>-15,19; 12,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 13,0</t>
+          <t>-12,47; 15,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 4,33</t>
+          <t>-6,28; 22,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,4</t>
+          <t>-3,17; 30,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 8,82</t>
+          <t>-7,28; 10,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 13,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 18,83</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 22,95</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>127,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>344,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>382,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>331,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>105,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>100,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>136,87%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,74; 1048,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,01; 718,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,64; 122,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 139,9</t>
+          <t>-72,97; 187,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 205,19</t>
+          <t>-64,72; 204,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 101,71</t>
+          <t>-32,7; 275,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 134,08</t>
+          <t>-23,22; 378,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 191,78</t>
+          <t>-60,44; 256,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-33,65; 353,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; 460,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 479,96</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,44</t>
+          <t>-1,19; 5,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,56</t>
+          <t>-0,9; 4,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,88</t>
+          <t>-1,02; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,96</t>
+          <t>0,74; 8,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 7,95</t>
+          <t>-3,14; 7,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,08</t>
+          <t>-1,29; 10,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,93</t>
+          <t>-4,24; 6,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,76</t>
+          <t>2,46; 15,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,73</t>
+          <t>-1,35; 4,95</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 6,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 4,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 10,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>125,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>141,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>151,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>315,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>74,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>83,8%</t>
+          <t>148,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>50,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>82,63%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>170,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 513,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,35; 575,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 439,33</t>
+          <t>-65,74; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 268,2</t>
+          <t>-23,33; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 293,72</t>
+          <t>-35,79; 212,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 321,54</t>
+          <t>-20,85; 257,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 240,81</t>
+          <t>-54,79; 197,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 230,6</t>
+          <t>16,24; 417,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 213,67</t>
+          <t>-29,88; 213,71</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 273,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-40,69; 191,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51,96; 423,41</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,19</t>
+          <t>-3,02; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 12,09</t>
+          <t>1,63; 19,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,5</t>
+          <t>-3,14; 3,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,81</t>
+          <t>-0,74; 8,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 5,03</t>
+          <t>-3,86; 2,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,02</t>
+          <t>-1,65; 5,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,98</t>
+          <t>-3,81; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,15</t>
+          <t>0,92; 12,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,48</t>
+          <t>-2,39; 1,7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 9,97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 1,9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 8,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>273,48%</t>
+          <t>429,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131,85%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>207,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>-32,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>-31,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>116,77%</t>
+          <t>247,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>54,48%</t>
+          <t>-10,23%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>201,98%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,8%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>229,33%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,63; —</t>
+          <t>-49,08; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,88; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,76; 220,6</t>
+          <t>-70,91; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 357,43</t>
+          <t>-100,0; 447,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 330,97</t>
+          <t>-54,34; 780,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 151,68</t>
+          <t>-100,0; 439,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 415,79</t>
+          <t>-3,24; 1635,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 237,48</t>
+          <t>-76,57; 226,17</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 1041,27</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-76,79; 228,81</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30,74; 1023,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>122,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 189,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,77; 423,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 268,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 130,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 147,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,87; 173,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 100,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,71; 149,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,25; 140,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9,34</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 3,63</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 9,84</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 5,09</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 7,77</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 3,83</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 6,3</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 4,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 14,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 3,05</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 6,29</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 4,25</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 9,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>90,46%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>292,52%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>161,4%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>288,63%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53,2%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>170,46%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>99,75%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49,72%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>188,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-42,85; 534,04</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>31,23; 1330,54</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 826,54</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>53,71; 1261,48</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-41,63; 98,46</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-13,78; 154,91</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 128,17</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>64,15; 358,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-27,37; 115,31</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>22,19; 231,74</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 170,55</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>82,91; 376,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
